--- a/data/minfin/20_questions.xlsx
+++ b/data/minfin/20_questions.xlsx
@@ -90,16 +90,10 @@
     <t>Иностранные организации, налогоплательщик, налога, на прибыль организаций, НП организаций, на территории, Российской Федерации</t>
   </si>
   <si>
-    <t>Налогоплательщиками налога на прибыль организаций признаются иностранные организации, осуществляющие свою деятельность в Российской Федерации через постоянные представительства или получающие доходы от источников в Российской Федерации</t>
-  </si>
-  <si>
     <t>В соответствии с пунктом 1 статьи 246 НК РФ налогоплательщиками налога на прибыль организаций признаются иностранные организации, осуществляющие свою деятельность в Российской Федерации через постоянные представительства и (или) получающие доходы от источников в Российской Федерации</t>
   </si>
   <si>
     <t>Деятельность, иностранной организации, признается, приводящей, к образованию, постоянного, представительства, Российской Федерации</t>
-  </si>
-  <si>
-    <t>Иностранная организация должна осуществлять предпринимательскую деятельность на территории Российской Федерации через постоянное представительство в Российской Федерации, связанную с использованием недр или природных ресурсов, проведением работ по строительству, установке, монтажу, сборке, наладке, обслуживанию и эксплуатации оборудования; продажей товаров со складов расположенных на территории Российской Федерации</t>
   </si>
   <si>
     <t xml:space="preserve">В соответствии с пунктом 2 и 4 статьи 306 НК РФ под постоянным представительством иностранной организации в Российской Федерации понимается филиал, представительство, отделение, бюро, контора, агентство, любое другое обособленное подразделение или иное место деятельности этой организации, через которое организация регулярно осуществляет предпринимательскую деятельность на территории Российской Федерации, связанную с:
@@ -113,21 +107,6 @@
     <t xml:space="preserve">Виды, доходов, иностранной организации, не осуществляющей, деятельность, на территории, Российской Федерации, постоянное представительство, подлежат, налогообложению </t>
   </si>
   <si>
-    <t xml:space="preserve">Пунктом 1 статьи 309 НК РФ определены виды доходов, относящихся к доходам иностранной организации от источников в Российской Федерации и подлежащие обложению налогом, удерживаемым у источника выплаты, если получение таких доходов не связано с предпринимательской деятельностью этой иностранной организации через постоянное представительство в Российской Федерации:
-1) дивиденды, выплачиваемые иностранной организации - акционеру (участнику) российских организаций;
-2) доходы, получаемые в результате распределения в пользу иностранных организаций прибыли или имущества организаций, иных лиц или их объединений, в том числе при их ликвидации;
-3) процентный доход от следующих долговых обязательств любого вида, включая облигации с правом на участие в прибылях и конвертируемые облигации: 
-• государственные и муниципальные эмиссионные ценные бумаги, условиями выпуска и обращения которых предусмотрено получение доходов в виде процентов; 
-• иные долговые обязательства российских организаций,
-4) доходы от использования в Российской Федерации прав на объекты интеллектуальной собственности. 
-6) доходы от реализации недвижимого имущества, находящегося на территории Российской Федерации; 
-7) доходы от сдачи в аренду или субаренду имущества, используемого на территории Российской Федерации, в том числе доходы от лизинговых операций, доходы от предоставления в аренду или субаренду морских и воздушных судов и (или) транспортных средств, а также контейнеров, используемых в международных перевозках;
-8) доходы от международных перевозок;
-9) штрафы и пени за нарушение российскими лицами, государственными органами и (или) исполнительными органами местного самоуправления договорных обязательств;
-10) иные аналогичные доходы
-</t>
-  </si>
-  <si>
     <t>Порядок, правила, налогообложение, доходов, прибыли, иностранной организации, налоговым резидентом иностранного государства, заключено, соглашение, об избежании, двойное, налогообложение</t>
   </si>
   <si>
@@ -139,9 +118,6 @@
   </si>
   <si>
     <t>устранение, двойного налогообложения, доходов, российской организации, полученных, от источников, за пределами, Российская Федерация</t>
-  </si>
-  <si>
-    <t>В случае наличия Соглашения об избежании двойного налогообложения с иностранным государством, от источников в котором были получены доходы российской организацией, устранение двойного налогообложения доходов российской организации осуществляется в соответствии с положениями Соглашения. При отсутствии такого Соглашения устранение двойного налогообложения осуществляется согласно статье триста одиннадцать Налогового кодекса Российской Федерации</t>
   </si>
   <si>
     <t>Устранение двойного налогообложения доходов российской организации, полученных от источников за пределами Российской Федерации, осуществляется согласно положениям соответствующего соглашения об избежании двойного налогообложения (в случае наличия). 
@@ -173,12 +149,103 @@
       <t>Налогового кодекса Российской Федерации определены виды доходов, относящихся к доходам иностранной организации от источников в Российской Федерации и подлежащие обложению налогом, удерживаемым у источника выплаты, если получение таких доходов не связано с предпринимательской деятельностью этой иностранной организации через постоянное представительство в Российской Федерации</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>Налогоплательщиками налога на прибыль организаций признаются иностранные организации, осуществляющие свою деятельность в Российской Федерации через постоянные представительства</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> или получающие доходы от источников в Российской Федерации</t>
+    </r>
+  </si>
+  <si>
+    <t>Под постоянным представительством иностранной организации понимается любое обособленное подразделение или иное место деятельности иностранной организации, через которое эта организация регулярно осуществляет предпринимательскую деятельность на территории Российской Федерации</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Пунктом 1 статьи 309 НК РФ определены виды доходов, относящихся к доходам иностранной организации от источников в Российской Федерации и подлежащие обложению налогом, удерживаемым у источника выплаты, если получение таких доходов не связано с предпринимательской деятельностью этой иностранной организации через постоянное представительство в Российской Федерации:
+1) дивиденды, выплачиваемые иностранной организации - акционеру (участнику) российских организаций;
+2) доходы, получаемые в результате распределения в пользу иностранных организаций прибыли или имущества организаций, иных лиц или их объединений, в том числе при их ликвидации;
+3) процентный доход от следующих долговых обязательств любого вида, включая облигации с правом на участие в прибылях и конвертируемые облигации: 
+• государственные и муниципальные эмиссионные ценные бумаги, условиями выпуска и обращения которых предусмотрено получение доходов в виде процентов; 
+• иные долговые обязательства российских организаций,
+4) доходы от использования в Российской Федерации прав на объекты интеллектуальной собственности. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>5) доходы от реализации акций (долей) организаций, более 50 процентов активов которых прямо или косвенно состоит из недвижимого имущества, находящегося на территории Российской Федерации, а также финансовых инструментов, производных от таких акций (долей), за исключением акций, признаваемых обращающимися на организованном рынке ценных бумаг в соответствии с пунктом 9 статьи 280 Кодекса;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+6) доходы от реализации недвижимого имущества, находящегося на территории Российской Федерации; 
+7) доходы от сдачи в аренду или субаренду имущества, используемого на территории Российской Федерации, в том числе доходы от лизинговых операций, доходы от предоставления в аренду или субаренду морских и воздушных судов и (или) транспортных средств, а также контейнеров, используемых в международных перевозках;
+8) доходы от международных перевозок;
+9) штрафы и пени за нарушение российскими лицами, государственными органами и (или) исполнительными органами местного самоуправления договорных обязательств;
+10) иные аналогичные доходы
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>В случае наличия Соглашения об избежании двойного налогообложения с иностранным государством, от источников в котором</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> российской организацией были получены доходы, устранение двойного налогообложения осуществляется в соответствии с положения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ми Соглашения. При отсутствии такого Соглашения устранение двойного налогообложения осуществляется согласно статье триста одиннадцать Налогового кодекса Российской Федерации</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,13 +283,26 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -237,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -292,6 +372,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,7 +693,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,10 +704,10 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.140625" defaultRowHeight="15.75"/>
@@ -676,11 +765,11 @@
       <c r="B2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>22</v>
@@ -694,18 +783,18 @@
       <c r="B3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>26</v>
+      <c r="C3" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="362.25">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="378">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -713,13 +802,13 @@
         <v>19</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="157.5">
@@ -730,13 +819,13 @@
         <v>20</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="186.75" customHeight="1">
@@ -746,14 +835,14 @@
       <c r="B6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>34</v>
+      <c r="C6" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1">

--- a/data/minfin/20_questions.xlsx
+++ b/data/minfin/20_questions.xlsx
@@ -150,31 +150,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Налогоплательщиками налога на прибыль организаций признаются иностранные организации, осуществляющие свою деятельность в Российской Федерации через постоянные представительства</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> и</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> или получающие доходы от источников в Российской Федерации</t>
-    </r>
-  </si>
-  <si>
     <t>Под постоянным представительством иностранной организации понимается любое обособленное подразделение или иное место деятельности иностранной организации, через которое эта организация регулярно осуществляет предпринимательскую деятельность на территории Российской Федерации</t>
   </si>
   <si>
@@ -238,6 +213,31 @@
         <charset val="204"/>
       </rPr>
       <t>ми Соглашения. При отсутствии такого Соглашения устранение двойного налогообложения осуществляется согласно статье триста одиннадцать Налогового кодекса Российской Федерации</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Налогоплательщиками налога на прибыль организаций признаются иностранные организации, осуществляющие свою деятельность в Российской Федерации через постоянные представительства</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  (или) получающие доходы от источников в Российской Федерации</t>
     </r>
   </si>
 </sst>
@@ -693,7 +693,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -704,10 +704,10 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.140625" defaultRowHeight="15.75"/>
@@ -766,7 +766,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>23</v>
@@ -776,7 +776,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="252">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="236.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -784,7 +784,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>25</v>
@@ -805,13 +805,13 @@
         <v>32</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="157.5">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="126">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -836,7 +836,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>31</v>

--- a/data/minfin/20_questions.xlsx
+++ b/data/minfin/20_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,14 +96,6 @@
     <t>Деятельность, иностранной организации, признается, приводящей, к образованию, постоянного, представительства, Российской Федерации</t>
   </si>
   <si>
-    <t xml:space="preserve">В соответствии с пунктом 2 и 4 статьи 306 НК РФ под постоянным представительством иностранной организации в Российской Федерации понимается филиал, представительство, отделение, бюро, контора, агентство, любое другое обособленное подразделение или иное место деятельности этой организации, через которое организация регулярно осуществляет предпринимательскую деятельность на территории Российской Федерации, связанную с:
-• пользованием недрами и (или) использованием других природных ресурсов;
-• проведением предусмотренных контрактами работ по строительству, установке, монтажу, сборке, наладке, обслуживанию и эксплуатации оборудования, в том числе игровых автоматов;
-• продажей товаров с расположенных на территории Российской Федерации и принадлежащих этой организации или арендуемых ею складов;
-• осуществлением иных работ, оказанием услуг, ведением иной деятельности, за исключением деятельности подготовительного и вспомогательного характера при отсутствии признаков постоянного представительства
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Виды, доходов, иностранной организации, не осуществляющей, деятельность, на территории, Российской Федерации, постоянное представительство, подлежат, налогообложению </t>
   </si>
   <si>
@@ -122,32 +114,6 @@
   <si>
     <t>Устранение двойного налогообложения доходов российской организации, полученных от источников за пределами Российской Федерации, осуществляется согласно положениям соответствующего соглашения об избежании двойного налогообложения (в случае наличия). 
 При отсутствии действующего соглашения об избежании двойного налогообложения с иностранным государством, от источников в котором были получены доходы российской организацией, устранение двойного налогообложения осуществляется согласно статье 311 НК РФ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Пунктом </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">пунктом один статьи триста девять </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Налогового кодекса Российской Федерации определены виды доходов, относящихся к доходам иностранной организации от источников в Российской Федерации и подлежащие обложению налогом, удерживаемым у источника выплаты, если получение таких доходов не связано с предпринимательской деятельностью этой иностранной организации через постоянное представительство в Российской Федерации</t>
-    </r>
   </si>
   <si>
     <t>Под постоянным представительством иностранной организации понимается любое обособленное подразделение или иное место деятельности иностранной организации, через которое эта организация регулярно осуществляет предпринимательскую деятельность на территории Российской Федерации</t>
@@ -238,6 +204,40 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">  (или) получающие доходы от источников в Российской Федерации</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">В соответствии с пунктами 2 и 4 статьи 306 НК РФ под постоянным представительством иностранной организации в Российской Федерации понимается филиал, представительство, отделение, бюро, контора, агентство, любое другое обособленное подразделение или иное место деятельности этой организации, через которое организация регулярно осуществляет предпринимательскую деятельность на территории Российской Федерации, связанную с:
+• пользованием недрами и (или) использованием других природных ресурсов;
+• проведением предусмотренных контрактами работ по строительству, установке, монтажу, сборке, наладке, обслуживанию и эксплуатации оборудования, в том числе игровых автоматов;
+• продажей товаров с расположенных на территории Российской Федерации и принадлежащих этой организации или арендуемых ею складов;
+• осуществлением иных работ, оказанием услуг, ведением иной деятельности, за исключением деятельности подготовительного и вспомогательного характера при отсутствии признаков постоянного представительства
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Пунктом</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> один статьи триста девять </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Налогового кодекса Российской Федерации определены виды доходов, относящихся к доходам иностранной организации от источников в Российской Федерации и подлежащие обложению налогом, удерживаемым у источника выплаты, если получение таких доходов не связано с предпринимательской деятельностью этой иностранной организации через постоянное представительство в Российской Федерации</t>
     </r>
   </si>
 </sst>
@@ -693,7 +693,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -704,10 +704,10 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.140625" defaultRowHeight="15.75"/>
@@ -766,7 +766,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>23</v>
@@ -776,7 +776,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="236.25">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="252">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -784,10 +784,10 @@
         <v>18</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>24</v>
@@ -802,16 +802,16 @@
         <v>19</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>34</v>
-      </c>
       <c r="E4" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="126">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="157.5">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -819,13 +819,13 @@
         <v>20</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="E5" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="186.75" customHeight="1">
@@ -836,13 +836,13 @@
         <v>21</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1">
